--- a/src/main/resources/resultfile/ticket.xlsx
+++ b/src/main/resources/resultfile/ticket.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="5715" windowWidth="12765" xWindow="0" yWindow="105"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" r:id="rId1" sheetId="2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">Sheet2!$A$1:$L$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet2!$A$1:$L$9</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>货物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询电话：13376358637</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>送货方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,10 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>制单人：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>托运日期：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -526,18 +518,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抚顺</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>自提</t>
   </si>
   <si>
@@ -547,166 +530,13 @@
     <t>提付</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>发动机</t>
-  </si>
-  <si>
-    <t>2018-04-19</t>
-  </si>
-  <si>
-    <t>25630</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>临清</t>
-  </si>
-  <si>
-    <t>15360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">叁万   贰仟   壹佰   叁拾   贰元   </t>
-  </si>
-  <si>
-    <t>32132</t>
-  </si>
-  <si>
-    <t>3213</t>
-  </si>
-  <si>
-    <t>2560</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>送货</t>
-  </si>
-  <si>
-    <t>已付</t>
-  </si>
-  <si>
-    <t xml:space="preserve">壹万   贰仟   伍佰   陆拾   </t>
-  </si>
-  <si>
     <t>12560</t>
   </si>
   <si>
-    <t>25601</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">壹仟贰佰伍拾陆万   </t>
-  </si>
-  <si>
-    <t>12560000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">壹元   </t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>贰拾叁万   壹仟   贰佰   叁拾   贰   元</t>
-  </si>
-  <si>
-    <t>231232</t>
-  </si>
-  <si>
-    <t>100000253</t>
-  </si>
-  <si>
-    <t>壹仟   壹佰   壹拾   壹   元</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>100000259</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>qq</t>
-  </si>
-  <si>
-    <t>壹仟   贰佰   叁拾   贰   元</t>
-  </si>
-  <si>
-    <t>1232</t>
-  </si>
-  <si>
     <t>2018-04-20</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>回付</t>
-  </si>
-  <si>
-    <t>壹万   贰仟   伍佰   陆拾   元</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>1000002</t>
-  </si>
-  <si>
-    <t>壹万   贰仟   叁佰   肆拾   伍   元</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>1000003</t>
-  </si>
-  <si>
-    <t>12.52</t>
-  </si>
-  <si>
-    <t>1000004</t>
-  </si>
-  <si>
-    <t>聊城</t>
-  </si>
-  <si>
-    <t>梨树</t>
-  </si>
-  <si>
-    <t>木箱</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>22250</t>
-  </si>
-  <si>
-    <t>33.2</t>
-  </si>
-  <si>
-    <t>132.80</t>
   </si>
   <si>
     <t>1000005</t>
@@ -728,7 +558,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -931,124 +760,124 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="10" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="4" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="7" fillId="0" fontId="4" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="3" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="0" fontId="3" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="3" numFmtId="49" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="4" numFmtId="49" xfId="0">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="3" numFmtId="49" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="3" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="3" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="8" fillId="0" fontId="4" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="9" fillId="0" fontId="4" numFmtId="49" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1062,10 +891,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1223,7 +1052,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1232,13 +1061,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1248,7 +1077,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1257,7 +1086,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1266,7 +1095,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1276,12 +1105,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1312,7 +1141,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1331,7 +1160,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1343,235 +1172,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" tabSelected="1" view="pageLayout" workbookViewId="0" zoomScaleNormal="145">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I12" sqref="H12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.75" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="5.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.25" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="7.875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="4.375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="4.125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="5.375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="3.375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.75" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="7.625" collapsed="true"/>
+    <col min="1" max="1" width="10.75" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="4.375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="4.125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="3.375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.75" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="7.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="31.5" r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
+    <row r="1" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
-    <row customHeight="1" ht="17.25" r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="30"/>
+        <v>18</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="27"/>
     </row>
-    <row customHeight="1" ht="24" r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="17"/>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="17" t="s">
+      <c r="E3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="14"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="17"/>
     </row>
-    <row customHeight="1" ht="21.75" r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="34"/>
+      <c r="B4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="14"/>
+      <c r="E4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="17"/>
     </row>
-    <row customHeight="1" ht="23.25" r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>50</v>
-      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="17"/>
     </row>
-    <row customHeight="1" ht="20.25" r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" s="14"/>
-    </row>
-    <row customHeight="1" ht="26.25" r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="B7" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="33"/>
     </row>
-    <row customHeight="1" ht="24.75" r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
+      <c r="B8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
     </row>
-    <row customHeight="1" ht="24" r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+    <row r="9" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -1579,28 +1406,11 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="19"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="F5:G5"/>
@@ -1612,9 +1422,24 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0" footer="0" header="0.31496062992125984" left="0" right="0" top="0"/>
-  <pageSetup horizontalDpi="203" orientation="landscape" paperSize="9" r:id="rId1" scale="90" verticalDpi="203"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>